--- a/medicine/Enfance/Éditions_Z'ailées/Éditions_Z'ailées.xlsx
+++ b/medicine/Enfance/Éditions_Z'ailées/Éditions_Z'ailées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ditions_Z%27ail%C3%A9es</t>
+          <t>Éditions_Z'ailées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Éditions Z'ailées est une maison d'édition située à Ville-Marie en Abitibi-Témiscamingue se spécialisant dans la littérature pour la jeunesse. Les livres que cette maison d'édition québécoise publie visent les lecteurs de 4 à 17 ans.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ditions_Z%27ail%C3%A9es</t>
+          <t>Éditions_Z'ailées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Éditions Z'ailées ont été fondées en 2006 par Karen Lachapelle. D'abord mise sur pied dans l'initiative de faire connaître les auteurs de l'Abitibi-Témiscamingue, la maison publie également des titres d'auteurs issus du Québec et du Canada. En 2007, la maison d'édition reçoit son agrément[1]. En 2009, le programme est resserré et les Z'ailées publient des ouvrages de littérature jeunesse.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Éditions Z'ailées ont été fondées en 2006 par Karen Lachapelle. D'abord mise sur pied dans l'initiative de faire connaître les auteurs de l'Abitibi-Témiscamingue, la maison publie également des titres d'auteurs issus du Québec et du Canada. En 2007, la maison d'édition reçoit son agrément. En 2009, le programme est resserré et les Z'ailées publient des ouvrages de littérature jeunesse.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89ditions_Z%27ail%C3%A9es</t>
+          <t>Éditions_Z'ailées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89ditions_Z%27ail%C3%A9es</t>
+          <t>Éditions_Z'ailées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,6 +585,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
